--- a/Supplementary Table S1.xlsx
+++ b/Supplementary Table S1.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/79k/Documents/Clinical Pathway/BHI2021_April_18/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/79k/Documents/Clinical Pathway/ISBRA 2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9C7A9D-32CE-8044-9463-C7B022695BD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5142240-EED7-5A4C-8035-A2C4178EEBC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="19840" activeTab="6" xr2:uid="{C6B877FE-D26A-234D-A9B0-2FFD9770428D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19840" activeTab="6" xr2:uid="{C6B877FE-D26A-234D-A9B0-2FFD9770428D}"/>
   </bookViews>
   <sheets>
-    <sheet name="CPCC_1" sheetId="1" r:id="rId1"/>
-    <sheet name="CPCC_2" sheetId="2" r:id="rId2"/>
-    <sheet name="CPCC_3" sheetId="3" r:id="rId3"/>
-    <sheet name="CPCC_4" sheetId="4" r:id="rId4"/>
-    <sheet name="CPCC_5" sheetId="5" r:id="rId5"/>
-    <sheet name="CPCC_6" sheetId="6" r:id="rId6"/>
-    <sheet name="CPCC_7" sheetId="7" r:id="rId7"/>
+    <sheet name="CPC_1" sheetId="1" r:id="rId1"/>
+    <sheet name="CPC_2" sheetId="2" r:id="rId2"/>
+    <sheet name="CPC_3" sheetId="3" r:id="rId3"/>
+    <sheet name="CPC_4" sheetId="4" r:id="rId4"/>
+    <sheet name="CPC_5" sheetId="5" r:id="rId5"/>
+    <sheet name="CPC_6" sheetId="6" r:id="rId6"/>
+    <sheet name="CPC_7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="60">
   <si>
     <t>cpcc_id</t>
   </si>
@@ -60,9 +60,6 @@
     <t>recall</t>
   </si>
   <si>
-    <t>CPCC_1</t>
-  </si>
-  <si>
     <t>LAB_SERVICE|CBC</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>LAB_SERVICE|THYROID_PROFILE</t>
   </si>
   <si>
-    <t>CPCC_2</t>
-  </si>
-  <si>
     <t>PROCEDURE|ELECTROCARDIOGRAM_COMPLETE</t>
   </si>
   <si>
@@ -129,18 +123,12 @@
     <t>PROCEDURE|REGADENOSON_INJECTION</t>
   </si>
   <si>
-    <t>CPCC_3</t>
-  </si>
-  <si>
     <t>PROCEDURE|ELECTROCARDIOGRAM_REPORT</t>
   </si>
   <si>
     <t>PROCEDURE|ELECTROCARDIOGRAM_TRACING</t>
   </si>
   <si>
-    <t>CPCC_4</t>
-  </si>
-  <si>
     <t>LAB_SERVICE|HEMOGLOBIN_A1C_PANEL</t>
   </si>
   <si>
@@ -165,9 +153,6 @@
     <t>LAB_SERVICE|VA_TOX_SCREEN_OF_ABUSE</t>
   </si>
   <si>
-    <t>CPCC_5</t>
-  </si>
-  <si>
     <t>LAB_SERVICE|PARTIAL_THROMBOPLASTIN_TIME</t>
   </si>
   <si>
@@ -189,15 +174,9 @@
     <t>LAB_SERVICE|TYPE_&amp;_SCREEN_LAB</t>
   </si>
   <si>
-    <t>CPCC_6</t>
-  </si>
-  <si>
     <t>LAB_SERVICE|CBC_(DIFF&amp;PLT)</t>
   </si>
   <si>
-    <t>CPCC_7</t>
-  </si>
-  <si>
     <t>LAB_SERVICE|C&amp;S</t>
   </si>
   <si>
@@ -217,13 +196,37 @@
   </si>
   <si>
     <t>LAB_SERVICE|CRP*</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>CPC_1</t>
+  </si>
+  <si>
+    <t>CPC_2</t>
+  </si>
+  <si>
+    <t>CPC_3</t>
+  </si>
+  <si>
+    <t>CPC_4</t>
+  </si>
+  <si>
+    <t>CPC_5</t>
+  </si>
+  <si>
+    <t>CPC_6</t>
+  </si>
+  <si>
+    <t>CPC_7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -241,6 +244,12 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -295,591 +304,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -899,7 +323,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -941,6 +365,591 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -956,7 +965,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1032,7 +1041,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1112,21 +1121,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1161,26 +1155,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1188,6 +1163,40 @@
           <color rgb="FF3F3F3F"/>
         </top>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1203,105 +1212,105 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FF0A983-1CD1-0F4D-AAB9-BE59B0EEBC0B}" name="Table1" displayName="Table1" ref="A1:F11" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51" tableBorderDxfId="56" headerRowCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FF0A983-1CD1-0F4D-AAB9-BE59B0EEBC0B}" name="Table1" displayName="Table1" ref="A1:F11" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55" tableBorderDxfId="54" headerRowCellStyle="Normal">
   <autoFilter ref="A1:F11" xr:uid="{7B1211F0-0375-BA43-8555-5020BF67D087}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{2695BCEB-5C08-D441-9705-1D6C00C46D35}" name="cpcc_id" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{A8A084F2-EAFC-5E42-B2F1-B8F1BB7062D8}" name="item_token" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{CE6E341E-CE90-F84F-84A2-D9717314E9E1}" name="top10?" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{22672CAE-1E3A-9A47-9DE3-9A06180032A8}" name="f1_score" dataDxfId="55"/>
-    <tableColumn id="5" xr3:uid="{3678940E-49F3-734F-BA92-BFCAF1798DCA}" name="precision" dataDxfId="54"/>
-    <tableColumn id="6" xr3:uid="{5E92B058-C8CB-324E-A155-5D5FD819AB66}" name="recall" dataDxfId="53"/>
+    <tableColumn id="1" xr3:uid="{2695BCEB-5C08-D441-9705-1D6C00C46D35}" name="id" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{A8A084F2-EAFC-5E42-B2F1-B8F1BB7062D8}" name="item_token" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{CE6E341E-CE90-F84F-84A2-D9717314E9E1}" name="top10?" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{22672CAE-1E3A-9A47-9DE3-9A06180032A8}" name="f1_score" dataDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{3678940E-49F3-734F-BA92-BFCAF1798DCA}" name="precision" dataDxfId="51"/>
+    <tableColumn id="6" xr3:uid="{5E92B058-C8CB-324E-A155-5D5FD819AB66}" name="recall" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CBAC1DFE-051F-164E-97BD-C94DDCF60EE6}" name="Table2" displayName="Table2" ref="A1:F11" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CBAC1DFE-051F-164E-97BD-C94DDCF60EE6}" name="Table2" displayName="Table2" ref="A1:F11" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
   <autoFilter ref="A1:F11" xr:uid="{2BE32139-3F0C-A843-9BC2-E7A98032D351}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{70FAA890-321D-AE4D-985A-66605441C30D}" name="cpcc_id" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{FA413D70-7C4D-CE40-BB54-BBBE6BD2B8DB}" name="item_token" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{C812CB63-6242-4E46-9C9A-E479E20317C3}" name="top10?" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{F234AEF9-2B38-DD46-BB2B-C940D3A3513A}" name="f1_score" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{A06ABA37-22C2-4446-BE63-0DE4131FB7D4}" name="precision" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{B0BAB2A9-15ED-354D-A3C9-51A4AA645680}" name="recall" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{70FAA890-321D-AE4D-985A-66605441C30D}" name="id" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{FA413D70-7C4D-CE40-BB54-BBBE6BD2B8DB}" name="item_token" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{C812CB63-6242-4E46-9C9A-E479E20317C3}" name="top10?" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{F234AEF9-2B38-DD46-BB2B-C940D3A3513A}" name="f1_score" dataDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{A06ABA37-22C2-4446-BE63-0DE4131FB7D4}" name="precision" dataDxfId="44"/>
+    <tableColumn id="6" xr3:uid="{B0BAB2A9-15ED-354D-A3C9-51A4AA645680}" name="recall" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C77256BF-E497-3F42-BD44-D35CF3928F3B}" name="Table3" displayName="Table3" ref="A1:F11" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C77256BF-E497-3F42-BD44-D35CF3928F3B}" name="Table3" displayName="Table3" ref="A1:F11" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
   <autoFilter ref="A1:F11" xr:uid="{9D352DAD-F02F-0540-A500-0282AE8C4DCA}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{1F8E9AC8-C9C0-8E48-852D-71B44628931D}" name="cpcc_id" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{6FEDD04A-C67D-E142-97AF-7E2CB7064C0C}" name="item_token" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{DBABAC3B-7E8B-BD41-ABB2-3BDEC805A21E}" name="top10?" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{D8145668-EB54-1042-81B2-EC2BAAEBAC94}" name="f1_score" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{3365B034-EEB9-6041-B9ED-0158D34C8173}" name="precision" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{124EDFC9-5D43-7649-84FE-01A325A8BF80}" name="recall" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{1F8E9AC8-C9C0-8E48-852D-71B44628931D}" name="id" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{6FEDD04A-C67D-E142-97AF-7E2CB7064C0C}" name="item_token" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{DBABAC3B-7E8B-BD41-ABB2-3BDEC805A21E}" name="top10?" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{D8145668-EB54-1042-81B2-EC2BAAEBAC94}" name="f1_score" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{3365B034-EEB9-6041-B9ED-0158D34C8173}" name="precision" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{124EDFC9-5D43-7649-84FE-01A325A8BF80}" name="recall" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{69D9E3E7-993A-894B-9024-2DE894CB7F13}" name="Table4" displayName="Table4" ref="A1:F11" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{69D9E3E7-993A-894B-9024-2DE894CB7F13}" name="Table4" displayName="Table4" ref="A1:F11" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="A1:F11" xr:uid="{8537F515-B148-7548-9FE0-D17A1044B877}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{4AC5B2D6-88E2-3242-91AA-AE2583F47870}" name="cpcc_id" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{BF1BCAD4-A3A5-C245-9108-61AE908D2D91}" name="item_token" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{91FD79C8-E7B0-1D44-B392-A4E31C3A3704}" name="top10?" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{F381B599-3ECF-0E4A-91E2-7850AB7E39DF}" name="f1_score" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{CDAE66A1-D85F-144E-9940-9EC3BDA16B66}" name="precision" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{CEF0FEC7-331E-074D-AE0D-8F7BD9B76D7F}" name="recall" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{4AC5B2D6-88E2-3242-91AA-AE2583F47870}" name="id" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{BF1BCAD4-A3A5-C245-9108-61AE908D2D91}" name="item_token" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{91FD79C8-E7B0-1D44-B392-A4E31C3A3704}" name="top10?" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{F381B599-3ECF-0E4A-91E2-7850AB7E39DF}" name="f1_score" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{CDAE66A1-D85F-144E-9940-9EC3BDA16B66}" name="precision" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{CEF0FEC7-331E-074D-AE0D-8F7BD9B76D7F}" name="recall" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{80DC7A12-8C8C-B941-9EE9-5B6DC2F64E26}" name="Table5" displayName="Table5" ref="A1:F11" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{80DC7A12-8C8C-B941-9EE9-5B6DC2F64E26}" name="Table5" displayName="Table5" ref="A1:F11" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="A1:F11" xr:uid="{20DF768B-2D4A-214B-87A0-C73DE5C26CAB}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{D505FFCA-AF1E-FD4D-A07A-8ADF7560E2F4}" name="cpcc_id" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{DB4ED8EA-36A7-7543-B1A5-2F624B83556F}" name="item_token" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{E26249CB-6AA5-C144-843C-A1A55290575D}" name="top10?" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{64757162-5052-6C45-962F-CFD4A8624A3F}" name="f1_score" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{1586176A-E49C-F847-82DC-540647E8D829}" name="precision" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{B56A11A8-854D-8847-9DAE-B870AF03A4C9}" name="recall" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{D505FFCA-AF1E-FD4D-A07A-8ADF7560E2F4}" name="id" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{DB4ED8EA-36A7-7543-B1A5-2F624B83556F}" name="item_token" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{E26249CB-6AA5-C144-843C-A1A55290575D}" name="top10?" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{64757162-5052-6C45-962F-CFD4A8624A3F}" name="f1_score" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{1586176A-E49C-F847-82DC-540647E8D829}" name="precision" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{B56A11A8-854D-8847-9DAE-B870AF03A4C9}" name="recall" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DAA77879-1D10-3D41-BA9D-AEB4946B9F81}" name="Table6" displayName="Table6" ref="A1:F11" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DAA77879-1D10-3D41-BA9D-AEB4946B9F81}" name="Table6" displayName="Table6" ref="A1:F11" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:F11" xr:uid="{F9C27C0E-E797-B543-AA29-D7B3C4609A7E}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{DC03036D-F836-C24D-B20F-E2865DCE1BB8}" name="cpcc_id" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{01535F05-455C-4F4A-A259-9F175CAC2D1E}" name="item_token" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{C6B7986A-9AC9-6642-B2BE-9A08961A462A}" name="top10?" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{1CB98A24-3192-EB41-A1D1-F1C6E020771D}" name="f1_score" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{D01AABDF-AE60-104A-81A2-DC60E56AFED5}" name="precision" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{CD5A1829-1810-FE48-86C9-0ACECE5F709C}" name="recall" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{DC03036D-F836-C24D-B20F-E2865DCE1BB8}" name="id" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{01535F05-455C-4F4A-A259-9F175CAC2D1E}" name="item_token" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{C6B7986A-9AC9-6642-B2BE-9A08961A462A}" name="top10?" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{1CB98A24-3192-EB41-A1D1-F1C6E020771D}" name="f1_score" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{D01AABDF-AE60-104A-81A2-DC60E56AFED5}" name="precision" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{CD5A1829-1810-FE48-86C9-0ACECE5F709C}" name="recall" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E83A0825-D512-C84F-8765-19EB46A533E0}" name="Table7" displayName="Table7" ref="A1:F11" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E83A0825-D512-C84F-8765-19EB46A533E0}" name="Table7" displayName="Table7" ref="A1:F11" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:F11" xr:uid="{E7BFED7B-C173-CD4F-8AE4-FD1C3FEF7C11}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{EA28A915-5287-664A-8F35-7D463893485C}" name="cpcc_id" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{728187B9-0D35-E44C-8CF6-75B58C598B4A}" name="item_token" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{03BC1464-9E06-1946-A2A2-886FCD8295DD}" name="top10?" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{957B5D4B-17FD-6A44-87E5-20E70F0AB2DA}" name="f1_score" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{35B9828F-E15A-2843-BFE5-9CAF64DC56F4}" name="precision" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{57DA298F-B7C2-FB46-9898-53091E92063C}" name="recall" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{EA28A915-5287-664A-8F35-7D463893485C}" name="cpcc_id" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{728187B9-0D35-E44C-8CF6-75B58C598B4A}" name="item_token" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{03BC1464-9E06-1946-A2A2-886FCD8295DD}" name="top10?" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{957B5D4B-17FD-6A44-87E5-20E70F0AB2DA}" name="f1_score" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{35B9828F-E15A-2843-BFE5-9CAF64DC56F4}" name="precision" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{57DA298F-B7C2-FB46-9898-53091E92063C}" name="recall" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1607,7 +1616,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1621,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1641,13 +1650,13 @@
     </row>
     <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1">
         <v>0.98958168546181802</v>
@@ -1661,13 +1670,13 @@
     </row>
     <row r="3" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1">
         <v>0.90275229357798104</v>
@@ -1681,13 +1690,13 @@
     </row>
     <row r="4" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1">
         <v>0.403235423741995</v>
@@ -1701,13 +1710,13 @@
     </row>
     <row r="5" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1">
         <v>0.27133129324842098</v>
@@ -1721,13 +1730,13 @@
     </row>
     <row r="6" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1">
         <v>0.24004764031561701</v>
@@ -1741,13 +1750,13 @@
     </row>
     <row r="7" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1">
         <v>0.22394974968127099</v>
@@ -1761,13 +1770,13 @@
     </row>
     <row r="8" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1">
         <v>0.20766860043509699</v>
@@ -1781,13 +1790,13 @@
     </row>
     <row r="9" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1">
         <v>0.189225460122699</v>
@@ -1801,13 +1810,13 @@
     </row>
     <row r="10" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1">
         <v>0.18003338898163601</v>
@@ -1821,13 +1830,13 @@
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1">
         <v>0.17609257926032501</v>
@@ -1840,7 +1849,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -1852,7 +1863,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -1866,7 +1877,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1886,13 +1897,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1">
         <v>0.98623948849815801</v>
@@ -1906,13 +1917,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1">
         <v>0.731325208070293</v>
@@ -1926,13 +1937,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1">
         <v>0.67617835938446602</v>
@@ -1946,13 +1957,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1">
         <v>0.64274027175072901</v>
@@ -1966,13 +1977,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1">
         <v>0.60757389607573797</v>
@@ -1986,13 +1997,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1">
         <v>0.52537263439959803</v>
@@ -2006,13 +2017,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1">
         <v>0.46110479654466902</v>
@@ -2026,13 +2037,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1">
         <v>0.41474613292916601</v>
@@ -2046,13 +2057,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1">
         <v>0.38515034772602103</v>
@@ -2066,13 +2077,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1">
         <v>0.36160244765273902</v>
@@ -2085,6 +2096,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -2097,7 +2109,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2110,7 +2122,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2130,13 +2142,13 @@
     </row>
     <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1">
         <v>0.59486301369863004</v>
@@ -2150,13 +2162,13 @@
     </row>
     <row r="3" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1">
         <v>0.512943268474506</v>
@@ -2170,13 +2182,13 @@
     </row>
     <row r="4" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1">
         <v>0.41403547306572902</v>
@@ -2190,13 +2202,13 @@
     </row>
     <row r="5" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1">
         <v>0.39322317506797699</v>
@@ -2210,13 +2222,13 @@
     </row>
     <row r="6" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1">
         <v>0.378375482211744</v>
@@ -2230,13 +2242,13 @@
     </row>
     <row r="7" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1">
         <v>0.34824399260628403</v>
@@ -2250,13 +2262,13 @@
     </row>
     <row r="8" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1">
         <v>0.33585684790089398</v>
@@ -2270,13 +2282,13 @@
     </row>
     <row r="9" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1">
         <v>0.33564639337570701</v>
@@ -2290,13 +2302,13 @@
     </row>
     <row r="10" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1">
         <v>0.305344270444941</v>
@@ -2310,13 +2322,13 @@
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1">
         <v>0.29419510589268</v>
@@ -2329,6 +2341,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -2341,7 +2354,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2354,7 +2367,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2374,13 +2387,13 @@
     </row>
     <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1">
         <v>0.56323101777059703</v>
@@ -2394,13 +2407,13 @@
     </row>
     <row r="3" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1">
         <v>0.39736896197327798</v>
@@ -2414,13 +2427,13 @@
     </row>
     <row r="4" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1">
         <v>0.34452762923351099</v>
@@ -2434,13 +2447,13 @@
     </row>
     <row r="5" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1">
         <v>0.32282966337635999</v>
@@ -2454,13 +2467,13 @@
     </row>
     <row r="6" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1">
         <v>0.31026228143213902</v>
@@ -2474,13 +2487,13 @@
     </row>
     <row r="7" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1">
         <v>0.30732340893196097</v>
@@ -2494,13 +2507,13 @@
     </row>
     <row r="8" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1">
         <v>0.301949810435096</v>
@@ -2514,13 +2527,13 @@
     </row>
     <row r="9" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1">
         <v>0.29793745027235402</v>
@@ -2534,13 +2547,13 @@
     </row>
     <row r="10" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1">
         <v>0.19182032020638801</v>
@@ -2554,13 +2567,13 @@
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1">
         <v>0.184421715184893</v>
@@ -2573,6 +2586,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -2585,7 +2599,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2598,7 +2612,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2618,13 +2632,13 @@
     </row>
     <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1">
         <v>0.67064207460823699</v>
@@ -2638,13 +2652,13 @@
     </row>
     <row r="3" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1">
         <v>0.478962536023054</v>
@@ -2658,13 +2672,13 @@
     </row>
     <row r="4" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1">
         <v>0.47434214281636999</v>
@@ -2678,13 +2692,13 @@
     </row>
     <row r="5" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1">
         <v>0.46004277658953902</v>
@@ -2698,13 +2712,13 @@
     </row>
     <row r="6" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1">
         <v>0.457132564841498</v>
@@ -2718,13 +2732,13 @@
     </row>
     <row r="7" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1">
         <v>0.45256793383834798</v>
@@ -2738,13 +2752,13 @@
     </row>
     <row r="8" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1">
         <v>0.43899854285335799</v>
@@ -2758,13 +2772,13 @@
     </row>
     <row r="9" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1">
         <v>0.37409069803436001</v>
@@ -2778,13 +2792,13 @@
     </row>
     <row r="10" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1">
         <v>0.35152873379221999</v>
@@ -2798,13 +2812,13 @@
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1">
         <v>0.34829789096000602</v>
@@ -2817,6 +2831,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -2829,7 +2844,252 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="18.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.445823389021479</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.40552275095519202</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.49501801992791999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.30113636363636298</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.17725752508361201</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.197887455599177</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.12692607470471801</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.44880220479117999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.177961969770843</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.124882388161833</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.30951876192495198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.141390867197318</v>
+      </c>
+      <c r="E6" s="1">
+        <v>9.3886918422699694E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.28619885520457899</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.13122413562942101</v>
+      </c>
+      <c r="E7" s="1">
+        <v>9.5762299074525006E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.208395166419334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.13032084425242499</v>
+      </c>
+      <c r="E8" s="1">
+        <v>9.7851520952988699E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.19503921984312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.12902215611054499</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.102284011916583</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.17468730125079401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.12088605246558499</v>
+      </c>
+      <c r="E10" s="1">
+        <v>7.3266168930466793E-2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.345346618613525</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.120087771793337</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.113392352608777</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.12762348950604099</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2415D60-4699-3D4E-84D9-FA7FEC663403}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2862,39 +3122,39 @@
     </row>
     <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1">
-        <v>0.445823389021479</v>
+        <v>0.469864537661147</v>
       </c>
       <c r="E2" s="1">
-        <v>0.40552275095519202</v>
+        <v>0.30707381746642698</v>
       </c>
       <c r="F2" s="1">
-        <v>0.49501801992791999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1">
-        <v>0.30113636363636298</v>
+        <v>0.35423553209334402</v>
       </c>
       <c r="E3" s="1">
-        <v>0.17725752508361201</v>
+        <v>0.215240721865819</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -2902,397 +3162,153 @@
     </row>
     <row r="4" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1">
-        <v>0.197887455599177</v>
+        <v>0.261021286495289</v>
       </c>
       <c r="E4" s="1">
-        <v>0.12692607470471801</v>
+        <v>0.22408627920910701</v>
       </c>
       <c r="F4" s="1">
-        <v>0.44880220479117999</v>
+        <v>0.31253481894150398</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1">
-        <v>0.177961969770843</v>
+        <v>0.22119182551949099</v>
       </c>
       <c r="E5" s="1">
-        <v>0.124882388161833</v>
+        <v>0.15988083416087301</v>
       </c>
       <c r="F5" s="1">
-        <v>0.30951876192495198</v>
+        <v>0.35877437325905198</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1">
-        <v>0.141390867197318</v>
+        <v>0.20379746835442999</v>
       </c>
       <c r="E6" s="1">
-        <v>9.3886918422699694E-2</v>
+        <v>0.235897435897435</v>
       </c>
       <c r="F6" s="1">
-        <v>0.28619885520457899</v>
+        <v>0.17938718662952599</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1">
-        <v>0.13122413562942101</v>
+        <v>0.15337329030274999</v>
       </c>
       <c r="E7" s="1">
-        <v>9.5762299074525006E-2</v>
+        <v>0.171066163866986</v>
       </c>
       <c r="F7" s="1">
-        <v>0.208395166419334</v>
+        <v>0.138997214484679</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1">
-        <v>0.13032084425242499</v>
+        <v>0.15105141473081499</v>
       </c>
       <c r="E8" s="1">
-        <v>9.7851520952988699E-2</v>
+        <v>0.12488621882395699</v>
       </c>
       <c r="F8" s="1">
-        <v>0.19503921984312</v>
+        <v>0.19108635097493001</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1">
-        <v>0.12902215611054499</v>
+        <v>0.144556596971881</v>
       </c>
       <c r="E9" s="1">
-        <v>0.102284011916583</v>
+        <v>0.20480081716036699</v>
       </c>
       <c r="F9" s="1">
-        <v>0.17468730125079401</v>
+        <v>0.111699164345403</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1">
-        <v>0.12088605246558499</v>
+        <v>0.132804757185332</v>
       </c>
       <c r="E10" s="1">
-        <v>7.3266168930466793E-2</v>
+        <v>0.13504175064785401</v>
       </c>
       <c r="F10" s="1">
-        <v>0.345346618613525</v>
+        <v>0.13064066852367601</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.120087771793337</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.113392352608777</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.12762348950604099</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2415D60-4699-3D4E-84D9-FA7FEC663403}">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="92" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="18.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.469864537661147</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.30707381746642698</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="24" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.35423553209334402</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.215240721865819</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="24" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.261021286495289</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.22408627920910701</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.31253481894150398</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="24" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.22119182551949099</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.15988083416087301</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.35877437325905198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="24" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.20379746835442999</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.235897435897435</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.17938718662952599</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="24" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.15337329030274999</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.171066163866986</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.138997214484679</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="24" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.15105141473081499</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.12488621882395699</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.19108635097493001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="24" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.144556596971881</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.20480081716036699</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.111699164345403</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="24" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.132804757185332</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.13504175064785401</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.13064066852367601</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1">
         <v>0.12949871465295601</v>
@@ -3305,6 +3321,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Supplementary Table S1.xlsx
+++ b/Supplementary Table S1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/79k/Documents/Clinical Pathway/ISBRA 2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5142240-EED7-5A4C-8035-A2C4178EEBC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8D0F5D-1FB0-7047-92A1-A1B8C3EC06B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19840" activeTab="6" xr2:uid="{C6B877FE-D26A-234D-A9B0-2FFD9770428D}"/>
   </bookViews>
@@ -40,10 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="60">
-  <si>
-    <t>cpcc_id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="59">
   <si>
     <t>item_token</t>
   </si>
@@ -308,6 +305,591 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -365,591 +947,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -984,7 +981,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1041,7 +1038,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1136,7 +1133,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1155,7 +1152,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1215,102 +1212,102 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FF0A983-1CD1-0F4D-AAB9-BE59B0EEBC0B}" name="Table1" displayName="Table1" ref="A1:F11" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55" tableBorderDxfId="54" headerRowCellStyle="Normal">
   <autoFilter ref="A1:F11" xr:uid="{7B1211F0-0375-BA43-8555-5020BF67D087}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{2695BCEB-5C08-D441-9705-1D6C00C46D35}" name="id" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{A8A084F2-EAFC-5E42-B2F1-B8F1BB7062D8}" name="item_token" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{CE6E341E-CE90-F84F-84A2-D9717314E9E1}" name="top10?" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{22672CAE-1E3A-9A47-9DE3-9A06180032A8}" name="f1_score" dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{3678940E-49F3-734F-BA92-BFCAF1798DCA}" name="precision" dataDxfId="51"/>
-    <tableColumn id="6" xr3:uid="{5E92B058-C8CB-324E-A155-5D5FD819AB66}" name="recall" dataDxfId="50"/>
+    <tableColumn id="1" xr3:uid="{2695BCEB-5C08-D441-9705-1D6C00C46D35}" name="id" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{A8A084F2-EAFC-5E42-B2F1-B8F1BB7062D8}" name="item_token" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{CE6E341E-CE90-F84F-84A2-D9717314E9E1}" name="top10?" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{22672CAE-1E3A-9A47-9DE3-9A06180032A8}" name="f1_score" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{3678940E-49F3-734F-BA92-BFCAF1798DCA}" name="precision" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{5E92B058-C8CB-324E-A155-5D5FD819AB66}" name="recall" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CBAC1DFE-051F-164E-97BD-C94DDCF60EE6}" name="Table2" displayName="Table2" ref="A1:F11" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CBAC1DFE-051F-164E-97BD-C94DDCF60EE6}" name="Table2" displayName="Table2" ref="A1:F11" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="A1:F11" xr:uid="{2BE32139-3F0C-A843-9BC2-E7A98032D351}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{70FAA890-321D-AE4D-985A-66605441C30D}" name="id" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{FA413D70-7C4D-CE40-BB54-BBBE6BD2B8DB}" name="item_token" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{C812CB63-6242-4E46-9C9A-E479E20317C3}" name="top10?" dataDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{F234AEF9-2B38-DD46-BB2B-C940D3A3513A}" name="f1_score" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{A06ABA37-22C2-4446-BE63-0DE4131FB7D4}" name="precision" dataDxfId="44"/>
-    <tableColumn id="6" xr3:uid="{B0BAB2A9-15ED-354D-A3C9-51A4AA645680}" name="recall" dataDxfId="43"/>
+    <tableColumn id="1" xr3:uid="{70FAA890-321D-AE4D-985A-66605441C30D}" name="id" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{FA413D70-7C4D-CE40-BB54-BBBE6BD2B8DB}" name="item_token" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{C812CB63-6242-4E46-9C9A-E479E20317C3}" name="top10?" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{F234AEF9-2B38-DD46-BB2B-C940D3A3513A}" name="f1_score" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{A06ABA37-22C2-4446-BE63-0DE4131FB7D4}" name="precision" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{B0BAB2A9-15ED-354D-A3C9-51A4AA645680}" name="recall" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C77256BF-E497-3F42-BD44-D35CF3928F3B}" name="Table3" displayName="Table3" ref="A1:F11" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C77256BF-E497-3F42-BD44-D35CF3928F3B}" name="Table3" displayName="Table3" ref="A1:F11" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A1:F11" xr:uid="{9D352DAD-F02F-0540-A500-0282AE8C4DCA}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{1F8E9AC8-C9C0-8E48-852D-71B44628931D}" name="id" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{6FEDD04A-C67D-E142-97AF-7E2CB7064C0C}" name="item_token" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{DBABAC3B-7E8B-BD41-ABB2-3BDEC805A21E}" name="top10?" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{D8145668-EB54-1042-81B2-EC2BAAEBAC94}" name="f1_score" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{3365B034-EEB9-6041-B9ED-0158D34C8173}" name="precision" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{124EDFC9-5D43-7649-84FE-01A325A8BF80}" name="recall" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{1F8E9AC8-C9C0-8E48-852D-71B44628931D}" name="id" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{6FEDD04A-C67D-E142-97AF-7E2CB7064C0C}" name="item_token" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{DBABAC3B-7E8B-BD41-ABB2-3BDEC805A21E}" name="top10?" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{D8145668-EB54-1042-81B2-EC2BAAEBAC94}" name="f1_score" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{3365B034-EEB9-6041-B9ED-0158D34C8173}" name="precision" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{124EDFC9-5D43-7649-84FE-01A325A8BF80}" name="recall" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{69D9E3E7-993A-894B-9024-2DE894CB7F13}" name="Table4" displayName="Table4" ref="A1:F11" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{69D9E3E7-993A-894B-9024-2DE894CB7F13}" name="Table4" displayName="Table4" ref="A1:F11" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A1:F11" xr:uid="{8537F515-B148-7548-9FE0-D17A1044B877}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{4AC5B2D6-88E2-3242-91AA-AE2583F47870}" name="id" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{BF1BCAD4-A3A5-C245-9108-61AE908D2D91}" name="item_token" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{91FD79C8-E7B0-1D44-B392-A4E31C3A3704}" name="top10?" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{F381B599-3ECF-0E4A-91E2-7850AB7E39DF}" name="f1_score" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{CDAE66A1-D85F-144E-9940-9EC3BDA16B66}" name="precision" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{CEF0FEC7-331E-074D-AE0D-8F7BD9B76D7F}" name="recall" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{4AC5B2D6-88E2-3242-91AA-AE2583F47870}" name="id" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{BF1BCAD4-A3A5-C245-9108-61AE908D2D91}" name="item_token" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{91FD79C8-E7B0-1D44-B392-A4E31C3A3704}" name="top10?" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{F381B599-3ECF-0E4A-91E2-7850AB7E39DF}" name="f1_score" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{CDAE66A1-D85F-144E-9940-9EC3BDA16B66}" name="precision" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{CEF0FEC7-331E-074D-AE0D-8F7BD9B76D7F}" name="recall" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{80DC7A12-8C8C-B941-9EE9-5B6DC2F64E26}" name="Table5" displayName="Table5" ref="A1:F11" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{80DC7A12-8C8C-B941-9EE9-5B6DC2F64E26}" name="Table5" displayName="Table5" ref="A1:F11" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A1:F11" xr:uid="{20DF768B-2D4A-214B-87A0-C73DE5C26CAB}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{D505FFCA-AF1E-FD4D-A07A-8ADF7560E2F4}" name="id" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{DB4ED8EA-36A7-7543-B1A5-2F624B83556F}" name="item_token" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{E26249CB-6AA5-C144-843C-A1A55290575D}" name="top10?" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{64757162-5052-6C45-962F-CFD4A8624A3F}" name="f1_score" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{1586176A-E49C-F847-82DC-540647E8D829}" name="precision" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{B56A11A8-854D-8847-9DAE-B870AF03A4C9}" name="recall" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{D505FFCA-AF1E-FD4D-A07A-8ADF7560E2F4}" name="id" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{DB4ED8EA-36A7-7543-B1A5-2F624B83556F}" name="item_token" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{E26249CB-6AA5-C144-843C-A1A55290575D}" name="top10?" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{64757162-5052-6C45-962F-CFD4A8624A3F}" name="f1_score" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{1586176A-E49C-F847-82DC-540647E8D829}" name="precision" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{B56A11A8-854D-8847-9DAE-B870AF03A4C9}" name="recall" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DAA77879-1D10-3D41-BA9D-AEB4946B9F81}" name="Table6" displayName="Table6" ref="A1:F11" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DAA77879-1D10-3D41-BA9D-AEB4946B9F81}" name="Table6" displayName="Table6" ref="A1:F11" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:F11" xr:uid="{F9C27C0E-E797-B543-AA29-D7B3C4609A7E}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{DC03036D-F836-C24D-B20F-E2865DCE1BB8}" name="id" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{01535F05-455C-4F4A-A259-9F175CAC2D1E}" name="item_token" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{C6B7986A-9AC9-6642-B2BE-9A08961A462A}" name="top10?" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{1CB98A24-3192-EB41-A1D1-F1C6E020771D}" name="f1_score" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{D01AABDF-AE60-104A-81A2-DC60E56AFED5}" name="precision" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{CD5A1829-1810-FE48-86C9-0ACECE5F709C}" name="recall" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{DC03036D-F836-C24D-B20F-E2865DCE1BB8}" name="id" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{01535F05-455C-4F4A-A259-9F175CAC2D1E}" name="item_token" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{C6B7986A-9AC9-6642-B2BE-9A08961A462A}" name="top10?" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{1CB98A24-3192-EB41-A1D1-F1C6E020771D}" name="f1_score" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{D01AABDF-AE60-104A-81A2-DC60E56AFED5}" name="precision" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{CD5A1829-1810-FE48-86C9-0ACECE5F709C}" name="recall" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E83A0825-D512-C84F-8765-19EB46A533E0}" name="Table7" displayName="Table7" ref="A1:F11" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E83A0825-D512-C84F-8765-19EB46A533E0}" name="Table7" displayName="Table7" ref="A1:F11" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F11" xr:uid="{E7BFED7B-C173-CD4F-8AE4-FD1C3FEF7C11}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{EA28A915-5287-664A-8F35-7D463893485C}" name="cpcc_id" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{728187B9-0D35-E44C-8CF6-75B58C598B4A}" name="item_token" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{03BC1464-9E06-1946-A2A2-886FCD8295DD}" name="top10?" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{957B5D4B-17FD-6A44-87E5-20E70F0AB2DA}" name="f1_score" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{35B9828F-E15A-2843-BFE5-9CAF64DC56F4}" name="precision" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{57DA298F-B7C2-FB46-9898-53091E92063C}" name="recall" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{EA28A915-5287-664A-8F35-7D463893485C}" name="id" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{728187B9-0D35-E44C-8CF6-75B58C598B4A}" name="item_token" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{03BC1464-9E06-1946-A2A2-886FCD8295DD}" name="top10?" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{957B5D4B-17FD-6A44-87E5-20E70F0AB2DA}" name="f1_score" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{35B9828F-E15A-2843-BFE5-9CAF64DC56F4}" name="precision" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{57DA298F-B7C2-FB46-9898-53091E92063C}" name="recall" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1630,33 +1627,33 @@
   <sheetData>
     <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1">
         <v>0.98958168546181802</v>
@@ -1670,13 +1667,13 @@
     </row>
     <row r="3" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1">
         <v>0.90275229357798104</v>
@@ -1690,13 +1687,13 @@
     </row>
     <row r="4" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1">
         <v>0.403235423741995</v>
@@ -1710,13 +1707,13 @@
     </row>
     <row r="5" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1">
         <v>0.27133129324842098</v>
@@ -1730,13 +1727,13 @@
     </row>
     <row r="6" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1">
         <v>0.24004764031561701</v>
@@ -1750,13 +1747,13 @@
     </row>
     <row r="7" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1">
         <v>0.22394974968127099</v>
@@ -1770,13 +1767,13 @@
     </row>
     <row r="8" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1">
         <v>0.20766860043509699</v>
@@ -1790,13 +1787,13 @@
     </row>
     <row r="9" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1">
         <v>0.189225460122699</v>
@@ -1810,13 +1807,13 @@
     </row>
     <row r="10" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1">
         <v>0.18003338898163601</v>
@@ -1830,13 +1827,13 @@
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1">
         <v>0.17609257926032501</v>
@@ -1877,33 +1874,33 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1">
         <v>0.98623948849815801</v>
@@ -1917,13 +1914,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1">
         <v>0.731325208070293</v>
@@ -1937,13 +1934,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1">
         <v>0.67617835938446602</v>
@@ -1957,13 +1954,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1">
         <v>0.64274027175072901</v>
@@ -1977,13 +1974,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1">
         <v>0.60757389607573797</v>
@@ -1997,13 +1994,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1">
         <v>0.52537263439959803</v>
@@ -2017,13 +2014,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1">
         <v>0.46110479654466902</v>
@@ -2037,13 +2034,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1">
         <v>0.41474613292916601</v>
@@ -2057,13 +2054,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1">
         <v>0.38515034772602103</v>
@@ -2077,13 +2074,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1">
         <v>0.36160244765273902</v>
@@ -2122,33 +2119,33 @@
   <sheetData>
     <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1">
         <v>0.59486301369863004</v>
@@ -2162,13 +2159,13 @@
     </row>
     <row r="3" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1">
         <v>0.512943268474506</v>
@@ -2182,13 +2179,13 @@
     </row>
     <row r="4" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1">
         <v>0.41403547306572902</v>
@@ -2202,13 +2199,13 @@
     </row>
     <row r="5" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1">
         <v>0.39322317506797699</v>
@@ -2222,13 +2219,13 @@
     </row>
     <row r="6" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1">
         <v>0.378375482211744</v>
@@ -2242,13 +2239,13 @@
     </row>
     <row r="7" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1">
         <v>0.34824399260628403</v>
@@ -2262,13 +2259,13 @@
     </row>
     <row r="8" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1">
         <v>0.33585684790089398</v>
@@ -2282,13 +2279,13 @@
     </row>
     <row r="9" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1">
         <v>0.33564639337570701</v>
@@ -2302,13 +2299,13 @@
     </row>
     <row r="10" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1">
         <v>0.305344270444941</v>
@@ -2322,13 +2319,13 @@
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1">
         <v>0.29419510589268</v>
@@ -2367,33 +2364,33 @@
   <sheetData>
     <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1">
         <v>0.56323101777059703</v>
@@ -2407,13 +2404,13 @@
     </row>
     <row r="3" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1">
         <v>0.39736896197327798</v>
@@ -2427,13 +2424,13 @@
     </row>
     <row r="4" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1">
         <v>0.34452762923351099</v>
@@ -2447,13 +2444,13 @@
     </row>
     <row r="5" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1">
         <v>0.32282966337635999</v>
@@ -2467,13 +2464,13 @@
     </row>
     <row r="6" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1">
         <v>0.31026228143213902</v>
@@ -2487,13 +2484,13 @@
     </row>
     <row r="7" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1">
         <v>0.30732340893196097</v>
@@ -2507,13 +2504,13 @@
     </row>
     <row r="8" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1">
         <v>0.301949810435096</v>
@@ -2527,13 +2524,13 @@
     </row>
     <row r="9" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1">
         <v>0.29793745027235402</v>
@@ -2547,13 +2544,13 @@
     </row>
     <row r="10" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1">
         <v>0.19182032020638801</v>
@@ -2567,13 +2564,13 @@
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1">
         <v>0.184421715184893</v>
@@ -2612,33 +2609,33 @@
   <sheetData>
     <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1">
         <v>0.67064207460823699</v>
@@ -2652,13 +2649,13 @@
     </row>
     <row r="3" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1">
         <v>0.478962536023054</v>
@@ -2672,13 +2669,13 @@
     </row>
     <row r="4" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1">
         <v>0.47434214281636999</v>
@@ -2692,13 +2689,13 @@
     </row>
     <row r="5" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1">
         <v>0.46004277658953902</v>
@@ -2712,13 +2709,13 @@
     </row>
     <row r="6" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1">
         <v>0.457132564841498</v>
@@ -2732,13 +2729,13 @@
     </row>
     <row r="7" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1">
         <v>0.45256793383834798</v>
@@ -2752,13 +2749,13 @@
     </row>
     <row r="8" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1">
         <v>0.43899854285335799</v>
@@ -2772,13 +2769,13 @@
     </row>
     <row r="9" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1">
         <v>0.37409069803436001</v>
@@ -2792,13 +2789,13 @@
     </row>
     <row r="10" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1">
         <v>0.35152873379221999</v>
@@ -2812,13 +2809,13 @@
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1">
         <v>0.34829789096000602</v>
@@ -2857,33 +2854,33 @@
   <sheetData>
     <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1">
         <v>0.445823389021479</v>
@@ -2897,13 +2894,13 @@
     </row>
     <row r="3" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1">
         <v>0.30113636363636298</v>
@@ -2917,13 +2914,13 @@
     </row>
     <row r="4" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1">
         <v>0.197887455599177</v>
@@ -2937,13 +2934,13 @@
     </row>
     <row r="5" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1">
         <v>0.177961969770843</v>
@@ -2957,13 +2954,13 @@
     </row>
     <row r="6" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1">
         <v>0.141390867197318</v>
@@ -2977,13 +2974,13 @@
     </row>
     <row r="7" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1">
         <v>0.13122413562942101</v>
@@ -2997,13 +2994,13 @@
     </row>
     <row r="8" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1">
         <v>0.13032084425242499</v>
@@ -3017,13 +3014,13 @@
     </row>
     <row r="9" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1">
         <v>0.12902215611054499</v>
@@ -3037,13 +3034,13 @@
     </row>
     <row r="10" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1">
         <v>0.12088605246558499</v>
@@ -3057,13 +3054,13 @@
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1">
         <v>0.120087771793337</v>
@@ -3089,7 +3086,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3102,33 +3099,33 @@
   <sheetData>
     <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1">
         <v>0.469864537661147</v>
@@ -3142,13 +3139,13 @@
     </row>
     <row r="3" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1">
         <v>0.35423553209334402</v>
@@ -3162,13 +3159,13 @@
     </row>
     <row r="4" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1">
         <v>0.261021286495289</v>
@@ -3182,13 +3179,13 @@
     </row>
     <row r="5" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1">
         <v>0.22119182551949099</v>
@@ -3202,13 +3199,13 @@
     </row>
     <row r="6" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1">
         <v>0.20379746835442999</v>
@@ -3222,13 +3219,13 @@
     </row>
     <row r="7" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1">
         <v>0.15337329030274999</v>
@@ -3242,13 +3239,13 @@
     </row>
     <row r="8" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1">
         <v>0.15105141473081499</v>
@@ -3262,13 +3259,13 @@
     </row>
     <row r="9" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1">
         <v>0.144556596971881</v>
@@ -3282,13 +3279,13 @@
     </row>
     <row r="10" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1">
         <v>0.132804757185332</v>
@@ -3302,13 +3299,13 @@
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1">
         <v>0.12949871465295601</v>

--- a/Supplementary Table S1.xlsx
+++ b/Supplementary Table S1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/79k/Documents/Clinical Pathway/ISBRA 2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8D0F5D-1FB0-7047-92A1-A1B8C3EC06B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A870EC-9191-5F4E-BC86-43C65317D28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19840" activeTab="6" xr2:uid="{C6B877FE-D26A-234D-A9B0-2FFD9770428D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19840" xr2:uid="{C6B877FE-D26A-234D-A9B0-2FFD9770428D}"/>
   </bookViews>
   <sheets>
     <sheet name="CPC_1" sheetId="1" r:id="rId1"/>
@@ -1612,7 +1612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4240E5C1-1DB8-E24F-8204-4340E22D0DD6}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -3085,7 +3085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2415D60-4699-3D4E-84D9-FA7FEC663403}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
